--- a/examples-excel/resources/ExcelDemo.xlsx
+++ b/examples-excel/resources/ExcelDemo.xlsx
@@ -14,34 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>表明</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>T_ENV_MONI_STATIONINFO</t>
+  </si>
+  <si>
+    <t>101-测站基本信息（T_Env_Moni_StationInfo）</t>
+  </si>
+  <si>
+    <t>T_ENV_MONI_WATERDRINKSITEINFO</t>
+  </si>
+  <si>
+    <t>104-饮用水源地信息（T_Env_Moni_WaterDrinkSiteInfo）</t>
+  </si>
+  <si>
+    <t>T_ENV_MONI_WATERLAKEINFO</t>
+  </si>
+  <si>
+    <t>103-湖库信息（T_Env_Moni_WaterLakeInfo）</t>
+  </si>
+  <si>
+    <t>T_ENV_MONI_WATERMANAGERCONFIG</t>
+  </si>
+  <si>
+    <t>108-手工/自动监测-水质监测断面-管理属性配置（T_Env_Moni_WaterManagerConfig）</t>
+  </si>
+  <si>
+    <t>T_ENV_MONI_WATERMANAGERFIELD</t>
+  </si>
+  <si>
+    <t>107-手工/自动监测-水质监测断面-管理属性字段（T_ENV_MONI_WATERMANAGERFIELD）</t>
+  </si>
+  <si>
+    <t>T_ENV_MONI_WATERPOINTINFO</t>
+  </si>
+  <si>
+    <t>105-手工/自动监测-水质监测断面基本信息（T_Env_Moni_WaterPointInfo）</t>
+  </si>
+  <si>
+    <t>T_ENV_MONI_WATERPOINTMANAGER</t>
+  </si>
+  <si>
+    <t>106-手工/自动监测-水质监测断面-管理扩展属性（T_Env_Moni_WaterPointManager）</t>
+  </si>
+  <si>
+    <t>T_ENV_MONI_WATERRIVERINFO</t>
+  </si>
+  <si>
+    <t>102-河流信息（T_Env_Moni_WaterRiverInfo）</t>
   </si>
 </sst>
 </file>
@@ -84,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,58 +419,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="77.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1">
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
